--- a/16_jsp_mvc2_training_bookshop/WebContent/산출물리스트/bookshop_요구사항_정의서.xlsx
+++ b/16_jsp_mvc2_training_bookshop/WebContent/산출물리스트/bookshop_요구사항_정의서.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahy2\git\16_jsp_mvc2_training_bookshop\16_jsp_mvc2_training_bookshop\WebContent\산출물리스트\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6949D-E2D1-4CFC-A92D-F0EF365A0BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,8 +308,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +356,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +375,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -554,13 +566,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +597,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,14 +648,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,6 +660,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -699,7 +711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,9 +744,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,6 +796,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -942,519 +988,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="68.125" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="68.09765625" customWidth="1"/>
+    <col min="5" max="5" width="22.09765625" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" ht="42" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" ht="28.5" customHeight="1">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" ht="30.75" customHeight="1">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="F8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="F9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="F10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="F15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="F18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="F19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="F20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="F21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="F22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
+      <c r="F23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+      <c r="F24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+      <c r="F25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
+      <c r="F26" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="F27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:H27">
+  <autoFilter ref="B5:H27" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F17:H17"/>
@@ -1463,24 +1525,6 @@
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1489,12 +1533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,14 +1546,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>